--- a/DATOS MAESTROS.xlsx
+++ b/DATOS MAESTROS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cocampod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ara de trabajo\micro-services\bank-files-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820440AA-4DC3-4FFD-BC12-39FEBA367288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D3411-5DB5-4AB3-B760-181BA9A1DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C5C23A98-1657-4B1D-B8E6-94309BF41235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5C23A98-1657-4B1D-B8E6-94309BF41235}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS MAESTROS " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>TypeClient</t>
   </si>
@@ -118,9 +118,6 @@
     <t>VISA CREDITO LATAM</t>
   </si>
   <si>
-    <t>TypeCredit</t>
-  </si>
-  <si>
     <t>CONSUMO</t>
   </si>
   <si>
@@ -131,13 +128,25 @@
   </si>
   <si>
     <t>TARJETA DE CREDITO</t>
+  </si>
+  <si>
+    <t>tarjeta debito</t>
+  </si>
+  <si>
+    <t>prestamos</t>
+  </si>
+  <si>
+    <t>tarjeta credito</t>
+  </si>
+  <si>
+    <t>se reemplaza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +154,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -207,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -231,8 +260,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -252,7 +307,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -548,127 +603,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC0E72A-0E2E-4CD5-AEF4-0E256C6FADFC}">
-  <dimension ref="B2:H34"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="G2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="G3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="G6" s="2">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="14">
+        <v>3</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
@@ -676,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
@@ -688,7 +751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
@@ -702,7 +765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -712,7 +775,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -722,31 +785,33 @@
       <c r="G16" s="2"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>1</v>
       </c>
@@ -756,8 +821,11 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="E20" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>2</v>
       </c>
@@ -767,8 +835,11 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="E21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>3</v>
       </c>
@@ -778,8 +849,11 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="E22" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>4</v>
       </c>
@@ -787,10 +861,13 @@
         <v>24</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>5</v>
       </c>
@@ -798,10 +875,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>6</v>
       </c>
@@ -809,100 +889,168 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>6</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>9</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2">
-        <v>6</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
